--- a/www.eia.gov/electricity/monthly/xls/table_5_04_b.xlsx
+++ b/www.eia.gov/electricity/monthly/xls/table_5_04_b.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\eiaSAScomp\erus_share\EPM\Output\Monthly_Output\EPM_2016_10\EPM_2016_10P_Run_at_2016_12_22_094008\Output\XLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\eiaSAScomp\erus_share\EPM\Output\Monthly_Output\EPM_2016_11\EPM_2016_11P_Run_at_2017_01_19_170034\Output\XLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
     <t>Table 5.4.B. Sales of Electricity to Ultimate Customers by End-Use Sector,</t>
   </si>
   <si>
-    <t>by State, Year-to-Date through October 2016 and 2015 (Thousand Megawatthours)</t>
+    <t>by State, Year-to-Date through November 2016 and 2015 (Thousand Megawatthours)</t>
   </si>
   <si>
     <t/>
@@ -52,10 +52,10 @@
 and State</t>
   </si>
   <si>
-    <t>October 2016 YTD</t>
-  </si>
-  <si>
-    <t>October 2015 YTD</t>
+    <t>November 2016 YTD</t>
+  </si>
+  <si>
+    <t>November 2015 YTD</t>
   </si>
   <si>
     <t>New England</t>
@@ -1287,34 +1287,34 @@
         <v>11</v>
       </c>
       <c r="B5" s="8">
-        <v>39167</v>
+        <v>42402</v>
       </c>
       <c r="C5" s="8">
-        <v>40475</v>
+        <v>43667</v>
       </c>
       <c r="D5" s="8">
-        <v>44170</v>
+        <v>48118</v>
       </c>
       <c r="E5" s="8">
-        <v>45105</v>
+        <v>49123</v>
       </c>
       <c r="F5" s="8">
-        <v>14319</v>
+        <v>15695</v>
       </c>
       <c r="G5" s="8">
-        <v>15772</v>
+        <v>17248</v>
       </c>
       <c r="H5" s="8">
-        <v>459</v>
+        <v>504</v>
       </c>
       <c r="I5" s="8">
-        <v>483</v>
+        <v>525</v>
       </c>
       <c r="J5" s="8">
-        <v>98115</v>
+        <v>106719</v>
       </c>
       <c r="K5" s="8">
-        <v>101835</v>
+        <v>110562</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -1322,34 +1322,34 @@
         <v>12</v>
       </c>
       <c r="B6" s="10">
-        <v>10717</v>
+        <v>11583</v>
       </c>
       <c r="C6" s="10">
-        <v>11048</v>
+        <v>11883</v>
       </c>
       <c r="D6" s="10">
-        <v>10767</v>
+        <v>11693</v>
       </c>
       <c r="E6" s="10">
-        <v>10985</v>
+        <v>11945</v>
       </c>
       <c r="F6" s="10">
-        <v>2717</v>
+        <v>2980</v>
       </c>
       <c r="G6" s="10">
-        <v>2898</v>
+        <v>3160</v>
       </c>
       <c r="H6" s="10">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="I6" s="10">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="J6" s="10">
-        <v>24352</v>
+        <v>26423</v>
       </c>
       <c r="K6" s="10">
-        <v>25094</v>
+        <v>27165</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -1357,22 +1357,22 @@
         <v>13</v>
       </c>
       <c r="B7" s="10">
-        <v>3809</v>
+        <v>4139</v>
       </c>
       <c r="C7" s="10">
-        <v>3908</v>
+        <v>4231</v>
       </c>
       <c r="D7" s="10">
-        <v>3348</v>
+        <v>3639</v>
       </c>
       <c r="E7" s="10">
-        <v>3384</v>
+        <v>3655</v>
       </c>
       <c r="F7" s="10">
-        <v>2376</v>
+        <v>2609</v>
       </c>
       <c r="G7" s="10">
-        <v>2698</v>
+        <v>2944</v>
       </c>
       <c r="H7" s="10">
         <v>0</v>
@@ -1381,10 +1381,10 @@
         <v>0</v>
       </c>
       <c r="J7" s="10">
-        <v>9533</v>
+        <v>10387</v>
       </c>
       <c r="K7" s="10">
-        <v>9990</v>
+        <v>10830</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -1392,34 +1392,34 @@
         <v>14</v>
       </c>
       <c r="B8" s="10">
-        <v>16590</v>
+        <v>17939</v>
       </c>
       <c r="C8" s="10">
-        <v>17238</v>
+        <v>18591</v>
       </c>
       <c r="D8" s="10">
-        <v>21512</v>
+        <v>23475</v>
       </c>
       <c r="E8" s="10">
-        <v>22118</v>
+        <v>24121</v>
       </c>
       <c r="F8" s="10">
-        <v>5734</v>
+        <v>6281</v>
       </c>
       <c r="G8" s="10">
-        <v>6648</v>
+        <v>7277</v>
       </c>
       <c r="H8" s="10">
-        <v>285</v>
+        <v>312</v>
       </c>
       <c r="I8" s="10">
-        <v>297</v>
+        <v>324</v>
       </c>
       <c r="J8" s="10">
-        <v>44120</v>
+        <v>48008</v>
       </c>
       <c r="K8" s="10">
-        <v>46301</v>
+        <v>50313</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -1427,22 +1427,22 @@
         <v>15</v>
       </c>
       <c r="B9" s="10">
-        <v>3736</v>
+        <v>4053</v>
       </c>
       <c r="C9" s="10">
-        <v>3856</v>
+        <v>4165</v>
       </c>
       <c r="D9" s="10">
-        <v>3776</v>
+        <v>4107</v>
       </c>
       <c r="E9" s="10">
-        <v>3803</v>
+        <v>4145</v>
       </c>
       <c r="F9" s="10">
-        <v>1677</v>
+        <v>1834</v>
       </c>
       <c r="G9" s="10">
-        <v>1670</v>
+        <v>1828</v>
       </c>
       <c r="H9" s="10">
         <v>0</v>
@@ -1451,10 +1451,10 @@
         <v>0</v>
       </c>
       <c r="J9" s="10">
-        <v>9189</v>
+        <v>9994</v>
       </c>
       <c r="K9" s="10">
-        <v>9329</v>
+        <v>10139</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -1462,34 +1462,34 @@
         <v>16</v>
       </c>
       <c r="B10" s="10">
-        <v>2621</v>
+        <v>2835</v>
       </c>
       <c r="C10" s="10">
-        <v>2669</v>
+        <v>2885</v>
       </c>
       <c r="D10" s="10">
-        <v>3076</v>
+        <v>3358</v>
       </c>
       <c r="E10" s="10">
-        <v>3117</v>
+        <v>3402</v>
       </c>
       <c r="F10" s="10">
-        <v>641</v>
+        <v>702</v>
       </c>
       <c r="G10" s="10">
-        <v>669</v>
+        <v>733</v>
       </c>
       <c r="H10" s="10">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I10" s="10">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J10" s="10">
-        <v>6360</v>
+        <v>6920</v>
       </c>
       <c r="K10" s="10">
-        <v>6477</v>
+        <v>7044</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -1497,22 +1497,22 @@
         <v>17</v>
       </c>
       <c r="B11" s="10">
-        <v>1695</v>
+        <v>1853</v>
       </c>
       <c r="C11" s="10">
-        <v>1756</v>
+        <v>1910</v>
       </c>
       <c r="D11" s="10">
-        <v>1691</v>
+        <v>1846</v>
       </c>
       <c r="E11" s="10">
-        <v>1700</v>
+        <v>1854</v>
       </c>
       <c r="F11" s="10">
-        <v>1174</v>
+        <v>1288</v>
       </c>
       <c r="G11" s="10">
-        <v>1189</v>
+        <v>1306</v>
       </c>
       <c r="H11" s="10">
         <v>0</v>
@@ -1521,10 +1521,10 @@
         <v>0</v>
       </c>
       <c r="J11" s="10">
-        <v>4560</v>
+        <v>4987</v>
       </c>
       <c r="K11" s="10">
-        <v>4645</v>
+        <v>5070</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -1532,34 +1532,34 @@
         <v>18</v>
       </c>
       <c r="B12" s="8">
-        <v>113067</v>
+        <v>122056</v>
       </c>
       <c r="C12" s="8">
-        <v>115472</v>
+        <v>124164</v>
       </c>
       <c r="D12" s="8">
-        <v>133114</v>
+        <v>145181</v>
       </c>
       <c r="E12" s="8">
-        <v>134809</v>
+        <v>146846</v>
       </c>
       <c r="F12" s="8">
-        <v>59339</v>
+        <v>64916</v>
       </c>
       <c r="G12" s="8">
-        <v>61322</v>
+        <v>67051</v>
       </c>
       <c r="H12" s="8">
-        <v>3209</v>
+        <v>3526</v>
       </c>
       <c r="I12" s="8">
-        <v>3267</v>
+        <v>3575</v>
       </c>
       <c r="J12" s="8">
-        <v>308729</v>
+        <v>335679</v>
       </c>
       <c r="K12" s="8">
-        <v>314869</v>
+        <v>341636</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -1567,34 +1567,34 @@
         <v>19</v>
       </c>
       <c r="B13" s="10">
-        <v>25016</v>
+        <v>26833</v>
       </c>
       <c r="C13" s="10">
-        <v>25241</v>
+        <v>27030</v>
       </c>
       <c r="D13" s="10">
-        <v>32414</v>
+        <v>35319</v>
       </c>
       <c r="E13" s="10">
-        <v>32818</v>
+        <v>35713</v>
       </c>
       <c r="F13" s="10">
-        <v>5833</v>
+        <v>6372</v>
       </c>
       <c r="G13" s="10">
-        <v>6169</v>
+        <v>6783</v>
       </c>
       <c r="H13" s="10">
-        <v>252</v>
+        <v>276</v>
       </c>
       <c r="I13" s="10">
-        <v>255</v>
+        <v>279</v>
       </c>
       <c r="J13" s="10">
-        <v>63515</v>
+        <v>68799</v>
       </c>
       <c r="K13" s="10">
-        <v>64484</v>
+        <v>69805</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -1602,34 +1602,34 @@
         <v>20</v>
       </c>
       <c r="B14" s="10">
-        <v>43131</v>
+        <v>46640</v>
       </c>
       <c r="C14" s="10">
-        <v>43654</v>
+        <v>47034</v>
       </c>
       <c r="D14" s="10">
-        <v>64175</v>
+        <v>69993</v>
       </c>
       <c r="E14" s="10">
-        <v>65062</v>
+        <v>70875</v>
       </c>
       <c r="F14" s="10">
-        <v>14231</v>
+        <v>15653</v>
       </c>
       <c r="G14" s="10">
-        <v>15150</v>
+        <v>16633</v>
       </c>
       <c r="H14" s="10">
-        <v>2292</v>
+        <v>2524</v>
       </c>
       <c r="I14" s="10">
-        <v>2362</v>
+        <v>2587</v>
       </c>
       <c r="J14" s="10">
-        <v>123828</v>
+        <v>134810</v>
       </c>
       <c r="K14" s="10">
-        <v>126227</v>
+        <v>137129</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -1637,34 +1637,34 @@
         <v>21</v>
       </c>
       <c r="B15" s="10">
-        <v>44919</v>
+        <v>48582</v>
       </c>
       <c r="C15" s="10">
-        <v>46577</v>
+        <v>50099</v>
       </c>
       <c r="D15" s="10">
-        <v>36526</v>
+        <v>39870</v>
       </c>
       <c r="E15" s="10">
-        <v>36929</v>
+        <v>40258</v>
       </c>
       <c r="F15" s="10">
-        <v>39275</v>
+        <v>42891</v>
       </c>
       <c r="G15" s="10">
-        <v>40003</v>
+        <v>43636</v>
       </c>
       <c r="H15" s="10">
-        <v>665</v>
+        <v>726</v>
       </c>
       <c r="I15" s="10">
-        <v>649</v>
+        <v>709</v>
       </c>
       <c r="J15" s="10">
-        <v>121385</v>
+        <v>132069</v>
       </c>
       <c r="K15" s="10">
-        <v>124158</v>
+        <v>134702</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -1672,34 +1672,34 @@
         <v>22</v>
       </c>
       <c r="B16" s="8">
-        <v>157270</v>
+        <v>169800</v>
       </c>
       <c r="C16" s="8">
-        <v>154960</v>
+        <v>167733</v>
       </c>
       <c r="D16" s="8">
-        <v>156549</v>
+        <v>170577</v>
       </c>
       <c r="E16" s="8">
-        <v>154921</v>
+        <v>168878</v>
       </c>
       <c r="F16" s="8">
-        <v>155264</v>
+        <v>169857</v>
       </c>
       <c r="G16" s="8">
-        <v>165453</v>
+        <v>180830</v>
       </c>
       <c r="H16" s="8">
-        <v>482</v>
+        <v>522</v>
       </c>
       <c r="I16" s="8">
-        <v>496</v>
+        <v>539</v>
       </c>
       <c r="J16" s="8">
-        <v>469564</v>
+        <v>510756</v>
       </c>
       <c r="K16" s="8">
-        <v>475830</v>
+        <v>517980</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -1707,34 +1707,34 @@
         <v>23</v>
       </c>
       <c r="B17" s="10">
-        <v>38895</v>
+        <v>41880</v>
       </c>
       <c r="C17" s="10">
-        <v>37780</v>
+        <v>40925</v>
       </c>
       <c r="D17" s="10">
-        <v>42803</v>
+        <v>46624</v>
       </c>
       <c r="E17" s="10">
-        <v>42456</v>
+        <v>46278</v>
       </c>
       <c r="F17" s="10">
-        <v>35379</v>
+        <v>38579</v>
       </c>
       <c r="G17" s="10">
-        <v>36495</v>
+        <v>39815</v>
       </c>
       <c r="H17" s="10">
-        <v>427</v>
+        <v>462</v>
       </c>
       <c r="I17" s="10">
-        <v>442</v>
+        <v>480</v>
       </c>
       <c r="J17" s="10">
-        <v>117504</v>
+        <v>127545</v>
       </c>
       <c r="K17" s="10">
-        <v>117173</v>
+        <v>127497</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -1742,34 +1742,34 @@
         <v>24</v>
       </c>
       <c r="B18" s="10">
-        <v>27364</v>
+        <v>29487</v>
       </c>
       <c r="C18" s="10">
-        <v>27682</v>
+        <v>29778</v>
       </c>
       <c r="D18" s="10">
-        <v>20489</v>
+        <v>22322</v>
       </c>
       <c r="E18" s="10">
-        <v>20397</v>
+        <v>22174</v>
       </c>
       <c r="F18" s="10">
-        <v>35040</v>
+        <v>38238</v>
       </c>
       <c r="G18" s="10">
-        <v>40450</v>
+        <v>44188</v>
       </c>
       <c r="H18" s="10">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I18" s="10">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J18" s="10">
-        <v>82911</v>
+        <v>90066</v>
       </c>
       <c r="K18" s="10">
-        <v>88547</v>
+        <v>96159</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -1777,22 +1777,22 @@
         <v>25</v>
       </c>
       <c r="B19" s="10">
-        <v>28933</v>
+        <v>31297</v>
       </c>
       <c r="C19" s="10">
-        <v>28016</v>
+        <v>30454</v>
       </c>
       <c r="D19" s="10">
-        <v>33013</v>
+        <v>35941</v>
       </c>
       <c r="E19" s="10">
-        <v>32381</v>
+        <v>35329</v>
       </c>
       <c r="F19" s="10">
-        <v>25144</v>
+        <v>27597</v>
       </c>
       <c r="G19" s="10">
-        <v>25705</v>
+        <v>28180</v>
       </c>
       <c r="H19" s="10">
         <v>4</v>
@@ -1801,10 +1801,10 @@
         <v>4</v>
       </c>
       <c r="J19" s="10">
-        <v>87094</v>
+        <v>94839</v>
       </c>
       <c r="K19" s="10">
-        <v>86106</v>
+        <v>93967</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -1812,34 +1812,34 @@
         <v>26</v>
       </c>
       <c r="B20" s="10">
-        <v>44047</v>
+        <v>47518</v>
       </c>
       <c r="C20" s="10">
-        <v>43843</v>
+        <v>47310</v>
       </c>
       <c r="D20" s="10">
-        <v>40220</v>
+        <v>43863</v>
       </c>
       <c r="E20" s="10">
-        <v>39894</v>
+        <v>43473</v>
       </c>
       <c r="F20" s="10">
-        <v>39629</v>
+        <v>43465</v>
       </c>
       <c r="G20" s="10">
-        <v>42657</v>
+        <v>46605</v>
       </c>
       <c r="H20" s="10">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I20" s="10">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="J20" s="10">
-        <v>123930</v>
+        <v>134882</v>
       </c>
       <c r="K20" s="10">
-        <v>126427</v>
+        <v>137425</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -1847,34 +1847,34 @@
         <v>27</v>
       </c>
       <c r="B21" s="10">
-        <v>18030</v>
+        <v>19618</v>
       </c>
       <c r="C21" s="10">
-        <v>17639</v>
+        <v>19266</v>
       </c>
       <c r="D21" s="10">
-        <v>20022</v>
+        <v>21827</v>
       </c>
       <c r="E21" s="10">
-        <v>19793</v>
+        <v>21624</v>
       </c>
       <c r="F21" s="10">
-        <v>20073</v>
+        <v>21978</v>
       </c>
       <c r="G21" s="10">
-        <v>20145</v>
+        <v>22041</v>
       </c>
       <c r="H21" s="10">
-        <v>0.15</v>
+        <v>0.17</v>
       </c>
       <c r="I21" s="10">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="J21" s="10">
-        <v>58125</v>
+        <v>63423</v>
       </c>
       <c r="K21" s="10">
-        <v>57577</v>
+        <v>62932</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -1882,34 +1882,34 @@
         <v>28</v>
       </c>
       <c r="B22" s="8">
-        <v>85559</v>
+        <v>92177</v>
       </c>
       <c r="C22" s="8">
-        <v>85670</v>
+        <v>92482</v>
       </c>
       <c r="D22" s="8">
-        <v>86062</v>
+        <v>93945</v>
       </c>
       <c r="E22" s="8">
-        <v>85586</v>
+        <v>93489</v>
       </c>
       <c r="F22" s="8">
-        <v>70682</v>
+        <v>77773</v>
       </c>
       <c r="G22" s="8">
-        <v>76811</v>
+        <v>84208</v>
       </c>
       <c r="H22" s="8">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="I22" s="8">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="J22" s="8">
-        <v>242341</v>
+        <v>263935</v>
       </c>
       <c r="K22" s="8">
-        <v>248105</v>
+        <v>270219</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -1917,22 +1917,22 @@
         <v>29</v>
       </c>
       <c r="B23" s="10">
-        <v>11544</v>
+        <v>12417</v>
       </c>
       <c r="C23" s="10">
-        <v>11556</v>
+        <v>12440</v>
       </c>
       <c r="D23" s="10">
-        <v>10190</v>
+        <v>11167</v>
       </c>
       <c r="E23" s="10">
-        <v>10083</v>
+        <v>11055</v>
       </c>
       <c r="F23" s="10">
-        <v>17946</v>
+        <v>19829</v>
       </c>
       <c r="G23" s="10">
-        <v>17819</v>
+        <v>19626</v>
       </c>
       <c r="H23" s="10">
         <v>0</v>
@@ -1941,10 +1941,10 @@
         <v>0</v>
       </c>
       <c r="J23" s="10">
-        <v>39680</v>
+        <v>43413</v>
       </c>
       <c r="K23" s="10">
-        <v>39458</v>
+        <v>43121</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
@@ -1952,22 +1952,22 @@
         <v>30</v>
       </c>
       <c r="B24" s="10">
-        <v>11557</v>
+        <v>12358</v>
       </c>
       <c r="C24" s="10">
-        <v>11403</v>
+        <v>12210</v>
       </c>
       <c r="D24" s="10">
-        <v>13282</v>
+        <v>14468</v>
       </c>
       <c r="E24" s="10">
-        <v>13049</v>
+        <v>14214</v>
       </c>
       <c r="F24" s="10">
-        <v>8893</v>
+        <v>9786</v>
       </c>
       <c r="G24" s="10">
-        <v>9437</v>
+        <v>10322</v>
       </c>
       <c r="H24" s="10">
         <v>0</v>
@@ -1976,10 +1976,10 @@
         <v>0</v>
       </c>
       <c r="J24" s="10">
-        <v>33732</v>
+        <v>36613</v>
       </c>
       <c r="K24" s="10">
-        <v>33889</v>
+        <v>36746</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
@@ -1987,34 +1987,34 @@
         <v>31</v>
       </c>
       <c r="B25" s="10">
-        <v>17758</v>
+        <v>19295</v>
       </c>
       <c r="C25" s="10">
-        <v>18065</v>
+        <v>19667</v>
       </c>
       <c r="D25" s="10">
-        <v>19467</v>
+        <v>21229</v>
       </c>
       <c r="E25" s="10">
-        <v>19657</v>
+        <v>21470</v>
       </c>
       <c r="F25" s="10">
-        <v>16653</v>
+        <v>18310</v>
       </c>
       <c r="G25" s="10">
-        <v>18067</v>
+        <v>19757</v>
       </c>
       <c r="H25" s="10">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I25" s="10">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J25" s="10">
-        <v>53896</v>
+        <v>58855</v>
       </c>
       <c r="K25" s="10">
-        <v>55809</v>
+        <v>60916</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
@@ -2022,34 +2022,34 @@
         <v>32</v>
       </c>
       <c r="B26" s="10">
-        <v>29072</v>
+        <v>31161</v>
       </c>
       <c r="C26" s="10">
-        <v>28971</v>
+        <v>31114</v>
       </c>
       <c r="D26" s="10">
-        <v>26096</v>
+        <v>28418</v>
       </c>
       <c r="E26" s="10">
-        <v>25853</v>
+        <v>28151</v>
       </c>
       <c r="F26" s="10">
-        <v>10079</v>
+        <v>11024</v>
       </c>
       <c r="G26" s="10">
-        <v>14360</v>
+        <v>15718</v>
       </c>
       <c r="H26" s="10">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I26" s="10">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J26" s="10">
-        <v>65265</v>
+        <v>70622</v>
       </c>
       <c r="K26" s="10">
-        <v>69202</v>
+        <v>75001</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
@@ -2057,22 +2057,22 @@
         <v>33</v>
       </c>
       <c r="B27" s="10">
-        <v>8158</v>
+        <v>8769</v>
       </c>
       <c r="C27" s="10">
-        <v>7966</v>
+        <v>8594</v>
       </c>
       <c r="D27" s="10">
-        <v>8016</v>
+        <v>8758</v>
       </c>
       <c r="E27" s="10">
-        <v>7797</v>
+        <v>8545</v>
       </c>
       <c r="F27" s="10">
-        <v>8803</v>
+        <v>9660</v>
       </c>
       <c r="G27" s="10">
-        <v>9005</v>
+        <v>9845</v>
       </c>
       <c r="H27" s="10">
         <v>0</v>
@@ -2081,10 +2081,10 @@
         <v>0</v>
       </c>
       <c r="J27" s="10">
-        <v>24977</v>
+        <v>27187</v>
       </c>
       <c r="K27" s="10">
-        <v>24767</v>
+        <v>26983</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
@@ -2092,22 +2092,22 @@
         <v>34</v>
       </c>
       <c r="B28" s="10">
-        <v>3709</v>
+        <v>4085</v>
       </c>
       <c r="C28" s="10">
-        <v>3940</v>
+        <v>4342</v>
       </c>
       <c r="D28" s="10">
-        <v>4990</v>
+        <v>5507</v>
       </c>
       <c r="E28" s="10">
-        <v>5171</v>
+        <v>5706</v>
       </c>
       <c r="F28" s="10">
-        <v>6062</v>
+        <v>6691</v>
       </c>
       <c r="G28" s="10">
-        <v>5782</v>
+        <v>6378</v>
       </c>
       <c r="H28" s="10">
         <v>0</v>
@@ -2116,10 +2116,10 @@
         <v>0</v>
       </c>
       <c r="J28" s="10">
-        <v>14761</v>
+        <v>16284</v>
       </c>
       <c r="K28" s="10">
-        <v>14893</v>
+        <v>16426</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
@@ -2127,22 +2127,22 @@
         <v>35</v>
       </c>
       <c r="B29" s="10">
-        <v>3761</v>
+        <v>4092</v>
       </c>
       <c r="C29" s="10">
-        <v>3770</v>
+        <v>4115</v>
       </c>
       <c r="D29" s="10">
-        <v>4020</v>
+        <v>4398</v>
       </c>
       <c r="E29" s="10">
-        <v>3976</v>
+        <v>4349</v>
       </c>
       <c r="F29" s="10">
-        <v>2249</v>
+        <v>2472</v>
       </c>
       <c r="G29" s="10">
-        <v>2343</v>
+        <v>2561</v>
       </c>
       <c r="H29" s="10">
         <v>0</v>
@@ -2151,10 +2151,10 @@
         <v>0</v>
       </c>
       <c r="J29" s="10">
-        <v>10030</v>
+        <v>10962</v>
       </c>
       <c r="K29" s="10">
-        <v>10088</v>
+        <v>11026</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
@@ -2162,34 +2162,34 @@
         <v>36</v>
       </c>
       <c r="B30" s="8">
-        <v>305715</v>
+        <v>329134</v>
       </c>
       <c r="C30" s="8">
-        <v>308837</v>
+        <v>332549</v>
       </c>
       <c r="D30" s="8">
-        <v>264046</v>
+        <v>287835</v>
       </c>
       <c r="E30" s="8">
-        <v>263540</v>
+        <v>287584</v>
       </c>
       <c r="F30" s="8">
-        <v>115218</v>
+        <v>126375</v>
       </c>
       <c r="G30" s="8">
-        <v>120153</v>
+        <v>131865</v>
       </c>
       <c r="H30" s="8">
-        <v>1119</v>
+        <v>1218</v>
       </c>
       <c r="I30" s="8">
-        <v>1137</v>
+        <v>1249</v>
       </c>
       <c r="J30" s="8">
-        <v>686098</v>
+        <v>744563</v>
       </c>
       <c r="K30" s="8">
-        <v>693667</v>
+        <v>753248</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
@@ -2197,22 +2197,22 @@
         <v>37</v>
       </c>
       <c r="B31" s="10">
-        <v>4052</v>
+        <v>4348</v>
       </c>
       <c r="C31" s="10">
-        <v>4207</v>
+        <v>4524</v>
       </c>
       <c r="D31" s="10">
-        <v>3578</v>
+        <v>3900</v>
       </c>
       <c r="E31" s="10">
-        <v>3610</v>
+        <v>3964</v>
       </c>
       <c r="F31" s="10">
-        <v>1735</v>
+        <v>1911</v>
       </c>
       <c r="G31" s="10">
-        <v>2011</v>
+        <v>2190</v>
       </c>
       <c r="H31" s="10">
         <v>0</v>
@@ -2221,10 +2221,10 @@
         <v>0</v>
       </c>
       <c r="J31" s="10">
-        <v>9366</v>
+        <v>10160</v>
       </c>
       <c r="K31" s="10">
-        <v>9828</v>
+        <v>10678</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
@@ -2232,34 +2232,34 @@
         <v>38</v>
       </c>
       <c r="B32" s="10">
-        <v>2169</v>
+        <v>2309</v>
       </c>
       <c r="C32" s="10">
-        <v>2173</v>
+        <v>2298</v>
       </c>
       <c r="D32" s="10">
-        <v>7072</v>
+        <v>7709</v>
       </c>
       <c r="E32" s="10">
-        <v>6960</v>
+        <v>7611</v>
       </c>
       <c r="F32" s="10">
-        <v>166</v>
+        <v>179</v>
       </c>
       <c r="G32" s="10">
-        <v>191</v>
+        <v>215</v>
       </c>
       <c r="H32" s="10">
-        <v>283</v>
+        <v>308</v>
       </c>
       <c r="I32" s="10">
-        <v>286</v>
+        <v>318</v>
       </c>
       <c r="J32" s="10">
-        <v>9690</v>
+        <v>10506</v>
       </c>
       <c r="K32" s="10">
-        <v>9611</v>
+        <v>10441</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
@@ -2267,34 +2267,34 @@
         <v>39</v>
       </c>
       <c r="B33" s="10">
-        <v>104613</v>
+        <v>112787</v>
       </c>
       <c r="C33" s="10">
-        <v>104784</v>
+        <v>113996</v>
       </c>
       <c r="D33" s="10">
-        <v>80074</v>
+        <v>87379</v>
       </c>
       <c r="E33" s="10">
-        <v>80366</v>
+        <v>88191</v>
       </c>
       <c r="F33" s="10">
-        <v>13724</v>
+        <v>15045</v>
       </c>
       <c r="G33" s="10">
-        <v>14077</v>
+        <v>15489</v>
       </c>
       <c r="H33" s="10">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="I33" s="10">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="J33" s="10">
-        <v>198490</v>
+        <v>215299</v>
       </c>
       <c r="K33" s="10">
-        <v>199308</v>
+        <v>217764</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
@@ -2302,34 +2302,34 @@
         <v>40</v>
       </c>
       <c r="B34" s="10">
-        <v>49563</v>
+        <v>53129</v>
       </c>
       <c r="C34" s="10">
-        <v>48932</v>
+        <v>52440</v>
       </c>
       <c r="D34" s="10">
-        <v>40344</v>
+        <v>43852</v>
       </c>
       <c r="E34" s="10">
-        <v>40091</v>
+        <v>43608</v>
       </c>
       <c r="F34" s="10">
-        <v>26571</v>
+        <v>29060</v>
       </c>
       <c r="G34" s="10">
-        <v>27058</v>
+        <v>29615</v>
       </c>
       <c r="H34" s="10">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="I34" s="10">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="J34" s="10">
-        <v>116622</v>
+        <v>126197</v>
       </c>
       <c r="K34" s="10">
-        <v>116224</v>
+        <v>125819</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
@@ -2337,34 +2337,34 @@
         <v>41</v>
       </c>
       <c r="B35" s="10">
-        <v>23020</v>
+        <v>24806</v>
       </c>
       <c r="C35" s="10">
-        <v>23684</v>
+        <v>25371</v>
       </c>
       <c r="D35" s="10">
-        <v>25008</v>
+        <v>27248</v>
       </c>
       <c r="E35" s="10">
-        <v>25199</v>
+        <v>27663</v>
       </c>
       <c r="F35" s="10">
-        <v>3148</v>
+        <v>3466</v>
       </c>
       <c r="G35" s="10">
-        <v>3234</v>
+        <v>3566</v>
       </c>
       <c r="H35" s="10">
-        <v>451</v>
+        <v>493</v>
       </c>
       <c r="I35" s="10">
-        <v>453</v>
+        <v>499</v>
       </c>
       <c r="J35" s="10">
-        <v>51627</v>
+        <v>56014</v>
       </c>
       <c r="K35" s="10">
-        <v>52570</v>
+        <v>57098</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
@@ -2372,22 +2372,22 @@
         <v>42</v>
       </c>
       <c r="B36" s="10">
-        <v>49096</v>
+        <v>52858</v>
       </c>
       <c r="C36" s="10">
-        <v>49889</v>
+        <v>53260</v>
       </c>
       <c r="D36" s="10">
-        <v>41148</v>
+        <v>44805</v>
       </c>
       <c r="E36" s="10">
-        <v>40894</v>
+        <v>44447</v>
       </c>
       <c r="F36" s="10">
-        <v>22506</v>
+        <v>24695</v>
       </c>
       <c r="G36" s="10">
-        <v>23074</v>
+        <v>25403</v>
       </c>
       <c r="H36" s="10">
         <v>6</v>
@@ -2396,10 +2396,10 @@
         <v>8</v>
       </c>
       <c r="J36" s="10">
-        <v>112756</v>
+        <v>122364</v>
       </c>
       <c r="K36" s="10">
-        <v>113865</v>
+        <v>123119</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
@@ -2407,22 +2407,22 @@
         <v>43</v>
       </c>
       <c r="B37" s="10">
-        <v>26187</v>
+        <v>28131</v>
       </c>
       <c r="C37" s="10">
-        <v>26033</v>
+        <v>27815</v>
       </c>
       <c r="D37" s="10">
-        <v>18751</v>
+        <v>20383</v>
       </c>
       <c r="E37" s="10">
-        <v>18720</v>
+        <v>20275</v>
       </c>
       <c r="F37" s="10">
-        <v>22322</v>
+        <v>24542</v>
       </c>
       <c r="G37" s="10">
-        <v>24656</v>
+        <v>27198</v>
       </c>
       <c r="H37" s="10">
         <v>0</v>
@@ -2431,10 +2431,10 @@
         <v>0</v>
       </c>
       <c r="J37" s="10">
-        <v>67259</v>
+        <v>73056</v>
       </c>
       <c r="K37" s="10">
-        <v>69409</v>
+        <v>75289</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
@@ -2442,34 +2442,34 @@
         <v>44</v>
       </c>
       <c r="B38" s="10">
-        <v>37665</v>
+        <v>40628</v>
       </c>
       <c r="C38" s="10">
-        <v>39456</v>
+        <v>42390</v>
       </c>
       <c r="D38" s="10">
-        <v>41505</v>
+        <v>45380</v>
       </c>
       <c r="E38" s="10">
-        <v>41072</v>
+        <v>44618</v>
       </c>
       <c r="F38" s="10">
-        <v>14301</v>
+        <v>15652</v>
       </c>
       <c r="G38" s="10">
-        <v>14826</v>
+        <v>16145</v>
       </c>
       <c r="H38" s="10">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="I38" s="10">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="J38" s="10">
-        <v>93627</v>
+        <v>101828</v>
       </c>
       <c r="K38" s="10">
-        <v>95521</v>
+        <v>103334</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
@@ -2477,22 +2477,22 @@
         <v>45</v>
       </c>
       <c r="B39" s="10">
-        <v>9350</v>
+        <v>10137</v>
       </c>
       <c r="C39" s="10">
-        <v>9677</v>
+        <v>10454</v>
       </c>
       <c r="D39" s="10">
-        <v>6566</v>
+        <v>7178</v>
       </c>
       <c r="E39" s="10">
-        <v>6627</v>
+        <v>7207</v>
       </c>
       <c r="F39" s="10">
-        <v>10745</v>
+        <v>11825</v>
       </c>
       <c r="G39" s="10">
-        <v>11027</v>
+        <v>12044</v>
       </c>
       <c r="H39" s="10">
         <v>0</v>
@@ -2501,10 +2501,10 @@
         <v>0</v>
       </c>
       <c r="J39" s="10">
-        <v>26661</v>
+        <v>29140</v>
       </c>
       <c r="K39" s="10">
-        <v>27331</v>
+        <v>29705</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
@@ -2512,22 +2512,22 @@
         <v>46</v>
       </c>
       <c r="B40" s="8">
-        <v>102039</v>
+        <v>109382</v>
       </c>
       <c r="C40" s="8">
-        <v>102710</v>
+        <v>109822</v>
       </c>
       <c r="D40" s="8">
-        <v>77904</v>
+        <v>84833</v>
       </c>
       <c r="E40" s="8">
-        <v>78592</v>
+        <v>85466</v>
       </c>
       <c r="F40" s="8">
-        <v>81289</v>
+        <v>89193</v>
       </c>
       <c r="G40" s="8">
-        <v>86701</v>
+        <v>94602</v>
       </c>
       <c r="H40" s="8">
         <v>0</v>
@@ -2536,10 +2536,10 @@
         <v>0</v>
       </c>
       <c r="J40" s="8">
-        <v>261233</v>
+        <v>283408</v>
       </c>
       <c r="K40" s="8">
-        <v>268003</v>
+        <v>289890</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
@@ -2547,22 +2547,22 @@
         <v>47</v>
       </c>
       <c r="B41" s="10">
-        <v>27629</v>
+        <v>29600</v>
       </c>
       <c r="C41" s="10">
-        <v>27671</v>
+        <v>29634</v>
       </c>
       <c r="D41" s="10">
-        <v>19703</v>
+        <v>21408</v>
       </c>
       <c r="E41" s="10">
-        <v>19953</v>
+        <v>21683</v>
       </c>
       <c r="F41" s="10">
-        <v>27255</v>
+        <v>29868</v>
       </c>
       <c r="G41" s="10">
-        <v>28300</v>
+        <v>30881</v>
       </c>
       <c r="H41" s="10">
         <v>0</v>
@@ -2571,10 +2571,10 @@
         <v>0</v>
       </c>
       <c r="J41" s="10">
-        <v>74587</v>
+        <v>80875</v>
       </c>
       <c r="K41" s="10">
-        <v>75924</v>
+        <v>82198</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
@@ -2582,22 +2582,22 @@
         <v>48</v>
       </c>
       <c r="B42" s="10">
-        <v>22360</v>
+        <v>24003</v>
       </c>
       <c r="C42" s="10">
-        <v>22570</v>
+        <v>24190</v>
       </c>
       <c r="D42" s="10">
-        <v>16441</v>
+        <v>17908</v>
       </c>
       <c r="E42" s="10">
-        <v>16648</v>
+        <v>18086</v>
       </c>
       <c r="F42" s="10">
-        <v>22762</v>
+        <v>25016</v>
       </c>
       <c r="G42" s="10">
-        <v>25779</v>
+        <v>28044</v>
       </c>
       <c r="H42" s="10">
         <v>0</v>
@@ -2606,10 +2606,10 @@
         <v>0</v>
       </c>
       <c r="J42" s="10">
-        <v>61563</v>
+        <v>66927</v>
       </c>
       <c r="K42" s="10">
-        <v>64997</v>
+        <v>70320</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
@@ -2617,22 +2617,22 @@
         <v>49</v>
       </c>
       <c r="B43" s="10">
-        <v>16055</v>
+        <v>17245</v>
       </c>
       <c r="C43" s="10">
-        <v>16197</v>
+        <v>17312</v>
       </c>
       <c r="D43" s="10">
-        <v>11885</v>
+        <v>12950</v>
       </c>
       <c r="E43" s="10">
-        <v>12250</v>
+        <v>13350</v>
       </c>
       <c r="F43" s="10">
-        <v>13784</v>
+        <v>15125</v>
       </c>
       <c r="G43" s="10">
-        <v>13162</v>
+        <v>14441</v>
       </c>
       <c r="H43" s="10">
         <v>0</v>
@@ -2641,10 +2641,10 @@
         <v>0</v>
       </c>
       <c r="J43" s="10">
-        <v>41724</v>
+        <v>45321</v>
       </c>
       <c r="K43" s="10">
-        <v>41609</v>
+        <v>45103</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
@@ -2652,22 +2652,22 @@
         <v>50</v>
       </c>
       <c r="B44" s="10">
-        <v>35995</v>
+        <v>38533</v>
       </c>
       <c r="C44" s="10">
-        <v>36272</v>
+        <v>38687</v>
       </c>
       <c r="D44" s="10">
-        <v>29875</v>
+        <v>32567</v>
       </c>
       <c r="E44" s="10">
-        <v>29742</v>
+        <v>32347</v>
       </c>
       <c r="F44" s="10">
-        <v>17488</v>
+        <v>19184</v>
       </c>
       <c r="G44" s="10">
-        <v>19459</v>
+        <v>21236</v>
       </c>
       <c r="H44" s="10">
         <v>0</v>
@@ -2676,10 +2676,10 @@
         <v>0</v>
       </c>
       <c r="J44" s="10">
-        <v>83358</v>
+        <v>90284</v>
       </c>
       <c r="K44" s="10">
-        <v>85473</v>
+        <v>92270</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
@@ -2687,34 +2687,34 @@
         <v>51</v>
       </c>
       <c r="B45" s="8">
-        <v>187346</v>
+        <v>200960</v>
       </c>
       <c r="C45" s="8">
-        <v>190276</v>
+        <v>202920</v>
       </c>
       <c r="D45" s="8">
-        <v>164686</v>
+        <v>179790</v>
       </c>
       <c r="E45" s="8">
-        <v>165412</v>
+        <v>179838</v>
       </c>
       <c r="F45" s="8">
-        <v>143367</v>
+        <v>157212</v>
       </c>
       <c r="G45" s="8">
-        <v>150080</v>
+        <v>164587</v>
       </c>
       <c r="H45" s="8">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="I45" s="8">
-        <v>160</v>
+        <v>177</v>
       </c>
       <c r="J45" s="8">
-        <v>495559</v>
+        <v>538141</v>
       </c>
       <c r="K45" s="8">
-        <v>505928</v>
+        <v>547523</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
@@ -2722,34 +2722,34 @@
         <v>52</v>
       </c>
       <c r="B46" s="10">
-        <v>15300</v>
+        <v>16393</v>
       </c>
       <c r="C46" s="10">
-        <v>15938</v>
+        <v>16967</v>
       </c>
       <c r="D46" s="10">
-        <v>10287</v>
+        <v>11241</v>
       </c>
       <c r="E46" s="10">
-        <v>10360</v>
+        <v>11275</v>
       </c>
       <c r="F46" s="10">
-        <v>13342</v>
+        <v>14673</v>
       </c>
       <c r="G46" s="10">
-        <v>13523</v>
+        <v>14791</v>
       </c>
       <c r="H46" s="10">
-        <v>0.36</v>
+        <v>0.39</v>
       </c>
       <c r="I46" s="10">
-        <v>0.37</v>
+        <v>0.4</v>
       </c>
       <c r="J46" s="10">
-        <v>38929</v>
+        <v>42307</v>
       </c>
       <c r="K46" s="10">
-        <v>39821</v>
+        <v>43033</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
@@ -2757,34 +2757,34 @@
         <v>53</v>
       </c>
       <c r="B47" s="10">
-        <v>26514</v>
+        <v>28554</v>
       </c>
       <c r="C47" s="10">
-        <v>27552</v>
+        <v>29498</v>
       </c>
       <c r="D47" s="10">
-        <v>21073</v>
+        <v>23074</v>
       </c>
       <c r="E47" s="10">
-        <v>21196</v>
+        <v>23152</v>
       </c>
       <c r="F47" s="10">
-        <v>27876</v>
+        <v>30625</v>
       </c>
       <c r="G47" s="10">
-        <v>29215</v>
+        <v>32114</v>
       </c>
       <c r="H47" s="10">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I47" s="10">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J47" s="10">
-        <v>75474</v>
+        <v>82264</v>
       </c>
       <c r="K47" s="10">
-        <v>77973</v>
+        <v>84775</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
@@ -2792,22 +2792,22 @@
         <v>54</v>
       </c>
       <c r="B48" s="10">
-        <v>19805</v>
+        <v>21117</v>
       </c>
       <c r="C48" s="10">
-        <v>19590</v>
+        <v>20869</v>
       </c>
       <c r="D48" s="10">
-        <v>17160</v>
+        <v>18713</v>
       </c>
       <c r="E48" s="10">
-        <v>17626</v>
+        <v>19172</v>
       </c>
       <c r="F48" s="10">
-        <v>14187</v>
+        <v>15581</v>
       </c>
       <c r="G48" s="10">
-        <v>15019</v>
+        <v>16551</v>
       </c>
       <c r="H48" s="10">
         <v>0</v>
@@ -2816,10 +2816,10 @@
         <v>0</v>
       </c>
       <c r="J48" s="10">
-        <v>51152</v>
+        <v>55411</v>
       </c>
       <c r="K48" s="10">
-        <v>52235</v>
+        <v>56592</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
@@ -2827,34 +2827,34 @@
         <v>55</v>
       </c>
       <c r="B49" s="10">
-        <v>125727</v>
+        <v>134897</v>
       </c>
       <c r="C49" s="10">
-        <v>127196</v>
+        <v>135587</v>
       </c>
       <c r="D49" s="10">
-        <v>116166</v>
+        <v>126762</v>
       </c>
       <c r="E49" s="10">
-        <v>116230</v>
+        <v>126239</v>
       </c>
       <c r="F49" s="10">
-        <v>87962</v>
+        <v>96332</v>
       </c>
       <c r="G49" s="10">
-        <v>92323</v>
+        <v>101132</v>
       </c>
       <c r="H49" s="10">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="I49" s="10">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="J49" s="10">
-        <v>330005</v>
+        <v>358158</v>
       </c>
       <c r="K49" s="10">
-        <v>335898</v>
+        <v>363123</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
@@ -2862,34 +2862,34 @@
         <v>56</v>
       </c>
       <c r="B50" s="8">
-        <v>82530</v>
+        <v>88841</v>
       </c>
       <c r="C50" s="8">
-        <v>80552</v>
+        <v>86906</v>
       </c>
       <c r="D50" s="8">
-        <v>80042</v>
+        <v>87303</v>
       </c>
       <c r="E50" s="8">
-        <v>80000</v>
+        <v>87295</v>
       </c>
       <c r="F50" s="8">
-        <v>70138</v>
+        <v>76502</v>
       </c>
       <c r="G50" s="8">
-        <v>71194</v>
+        <v>78039</v>
       </c>
       <c r="H50" s="8">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="I50" s="8">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="J50" s="8">
-        <v>232822</v>
+        <v>252770</v>
       </c>
       <c r="K50" s="8">
-        <v>231858</v>
+        <v>252362</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
@@ -2897,34 +2897,34 @@
         <v>57</v>
       </c>
       <c r="B51" s="10">
-        <v>29571</v>
+        <v>31495</v>
       </c>
       <c r="C51" s="10">
-        <v>28766</v>
+        <v>30635</v>
       </c>
       <c r="D51" s="10">
-        <v>25195</v>
+        <v>27405</v>
       </c>
       <c r="E51" s="10">
-        <v>24990</v>
+        <v>27109</v>
       </c>
       <c r="F51" s="10">
-        <v>12499</v>
+        <v>13623</v>
       </c>
       <c r="G51" s="10">
-        <v>12413</v>
+        <v>13646</v>
       </c>
       <c r="H51" s="10">
         <v>5</v>
       </c>
       <c r="I51" s="10">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J51" s="10">
-        <v>67270</v>
+        <v>72528</v>
       </c>
       <c r="K51" s="10">
-        <v>66174</v>
+        <v>71396</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
@@ -2932,34 +2932,34 @@
         <v>58</v>
       </c>
       <c r="B52" s="10">
-        <v>15849</v>
+        <v>17190</v>
       </c>
       <c r="C52" s="10">
-        <v>15287</v>
+        <v>16700</v>
       </c>
       <c r="D52" s="10">
-        <v>17116</v>
+        <v>18693</v>
       </c>
       <c r="E52" s="10">
-        <v>17091</v>
+        <v>18723</v>
       </c>
       <c r="F52" s="10">
-        <v>12831</v>
+        <v>14130</v>
       </c>
       <c r="G52" s="10">
-        <v>12766</v>
+        <v>14025</v>
       </c>
       <c r="H52" s="10">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="I52" s="10">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="J52" s="10">
-        <v>45851</v>
+        <v>50072</v>
       </c>
       <c r="K52" s="10">
-        <v>45197</v>
+        <v>49505</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
@@ -2967,22 +2967,22 @@
         <v>59</v>
       </c>
       <c r="B53" s="10">
-        <v>6481</v>
+        <v>7130</v>
       </c>
       <c r="C53" s="10">
-        <v>6404</v>
+        <v>7117</v>
       </c>
       <c r="D53" s="10">
-        <v>5161</v>
+        <v>5649</v>
       </c>
       <c r="E53" s="10">
-        <v>5193</v>
+        <v>5701</v>
       </c>
       <c r="F53" s="10">
-        <v>7575</v>
+        <v>8056</v>
       </c>
       <c r="G53" s="10">
-        <v>7768</v>
+        <v>8265</v>
       </c>
       <c r="H53" s="10">
         <v>0</v>
@@ -2991,10 +2991,10 @@
         <v>0</v>
       </c>
       <c r="J53" s="10">
-        <v>19216</v>
+        <v>20834</v>
       </c>
       <c r="K53" s="10">
-        <v>19365</v>
+        <v>21083</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
@@ -3002,22 +3002,22 @@
         <v>60</v>
       </c>
       <c r="B54" s="10">
-        <v>3905</v>
+        <v>4281</v>
       </c>
       <c r="C54" s="10">
-        <v>3904</v>
+        <v>4290</v>
       </c>
       <c r="D54" s="10">
-        <v>4080</v>
+        <v>4470</v>
       </c>
       <c r="E54" s="10">
-        <v>4067</v>
+        <v>4471</v>
       </c>
       <c r="F54" s="10">
-        <v>3534</v>
+        <v>3885</v>
       </c>
       <c r="G54" s="10">
-        <v>3749</v>
+        <v>4123</v>
       </c>
       <c r="H54" s="10">
         <v>0</v>
@@ -3026,10 +3026,10 @@
         <v>0</v>
       </c>
       <c r="J54" s="10">
-        <v>11519</v>
+        <v>12636</v>
       </c>
       <c r="K54" s="10">
-        <v>11720</v>
+        <v>12883</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
@@ -3037,34 +3037,34 @@
         <v>61</v>
       </c>
       <c r="B55" s="10">
-        <v>11019</v>
+        <v>11744</v>
       </c>
       <c r="C55" s="10">
-        <v>10851</v>
+        <v>11452</v>
       </c>
       <c r="D55" s="10">
-        <v>8322</v>
+        <v>9062</v>
       </c>
       <c r="E55" s="10">
-        <v>8167</v>
+        <v>8864</v>
       </c>
       <c r="F55" s="10">
-        <v>11527</v>
+        <v>12444</v>
       </c>
       <c r="G55" s="10">
-        <v>11799</v>
+        <v>12964</v>
       </c>
       <c r="H55" s="10">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I55" s="10">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J55" s="10">
-        <v>30875</v>
+        <v>33258</v>
       </c>
       <c r="K55" s="10">
-        <v>30824</v>
+        <v>33289</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
@@ -3072,22 +3072,22 @@
         <v>62</v>
       </c>
       <c r="B56" s="10">
-        <v>5690</v>
+        <v>6133</v>
       </c>
       <c r="C56" s="10">
-        <v>5584</v>
+        <v>6050</v>
       </c>
       <c r="D56" s="10">
-        <v>7473</v>
+        <v>8173</v>
       </c>
       <c r="E56" s="10">
-        <v>7483</v>
+        <v>8183</v>
       </c>
       <c r="F56" s="10">
-        <v>6224</v>
+        <v>6843</v>
       </c>
       <c r="G56" s="10">
-        <v>6311</v>
+        <v>6944</v>
       </c>
       <c r="H56" s="10">
         <v>0</v>
@@ -3096,10 +3096,10 @@
         <v>0</v>
       </c>
       <c r="J56" s="10">
-        <v>19387</v>
+        <v>21149</v>
       </c>
       <c r="K56" s="10">
-        <v>19378</v>
+        <v>21177</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
@@ -3107,34 +3107,34 @@
         <v>63</v>
       </c>
       <c r="B57" s="10">
-        <v>7805</v>
+        <v>8444</v>
       </c>
       <c r="C57" s="10">
-        <v>7593</v>
+        <v>8282</v>
       </c>
       <c r="D57" s="10">
-        <v>9585</v>
+        <v>10450</v>
       </c>
       <c r="E57" s="10">
-        <v>9739</v>
+        <v>10658</v>
       </c>
       <c r="F57" s="10">
-        <v>7583</v>
+        <v>8321</v>
       </c>
       <c r="G57" s="10">
-        <v>7803</v>
+        <v>8609</v>
       </c>
       <c r="H57" s="10">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="I57" s="10">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="J57" s="10">
-        <v>25019</v>
+        <v>27267</v>
       </c>
       <c r="K57" s="10">
-        <v>25182</v>
+        <v>27600</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
@@ -3142,22 +3142,22 @@
         <v>64</v>
       </c>
       <c r="B58" s="10">
-        <v>2209</v>
+        <v>2424</v>
       </c>
       <c r="C58" s="10">
-        <v>2163</v>
+        <v>2381</v>
       </c>
       <c r="D58" s="10">
-        <v>3110</v>
+        <v>3401</v>
       </c>
       <c r="E58" s="10">
-        <v>3271</v>
+        <v>3586</v>
       </c>
       <c r="F58" s="10">
-        <v>8365</v>
+        <v>9201</v>
       </c>
       <c r="G58" s="10">
-        <v>8584</v>
+        <v>9463</v>
       </c>
       <c r="H58" s="10">
         <v>0</v>
@@ -3166,10 +3166,10 @@
         <v>0</v>
       </c>
       <c r="J58" s="10">
-        <v>13684</v>
+        <v>15026</v>
       </c>
       <c r="K58" s="10">
-        <v>14018</v>
+        <v>15430</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
@@ -3177,34 +3177,34 @@
         <v>65</v>
       </c>
       <c r="B59" s="8">
-        <v>117315</v>
+        <v>127662</v>
       </c>
       <c r="C59" s="8">
-        <v>116968</v>
+        <v>127946</v>
       </c>
       <c r="D59" s="8">
-        <v>134251</v>
+        <v>147207</v>
       </c>
       <c r="E59" s="8">
-        <v>136894</v>
+        <v>149972</v>
       </c>
       <c r="F59" s="8">
-        <v>72331</v>
+        <v>79100</v>
       </c>
       <c r="G59" s="8">
-        <v>78108</v>
+        <v>85231</v>
       </c>
       <c r="H59" s="8">
-        <v>675</v>
+        <v>732</v>
       </c>
       <c r="I59" s="8">
-        <v>722</v>
+        <v>789</v>
       </c>
       <c r="J59" s="8">
-        <v>324573</v>
+        <v>354701</v>
       </c>
       <c r="K59" s="8">
-        <v>332692</v>
+        <v>363939</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
@@ -3212,34 +3212,34 @@
         <v>66</v>
       </c>
       <c r="B60" s="10">
-        <v>74885</v>
+        <v>81079</v>
       </c>
       <c r="C60" s="10">
-        <v>75153</v>
+        <v>81585</v>
       </c>
       <c r="D60" s="10">
-        <v>96547</v>
+        <v>105889</v>
       </c>
       <c r="E60" s="10">
-        <v>99290</v>
+        <v>108658</v>
       </c>
       <c r="F60" s="10">
-        <v>42238</v>
+        <v>46191</v>
       </c>
       <c r="G60" s="10">
-        <v>44596</v>
+        <v>48616</v>
       </c>
       <c r="H60" s="10">
-        <v>650</v>
+        <v>705</v>
       </c>
       <c r="I60" s="10">
-        <v>698</v>
+        <v>762</v>
       </c>
       <c r="J60" s="10">
-        <v>214320</v>
+        <v>233864</v>
       </c>
       <c r="K60" s="10">
-        <v>219737</v>
+        <v>239621</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
@@ -3247,34 +3247,34 @@
         <v>67</v>
       </c>
       <c r="B61" s="10">
-        <v>14922</v>
+        <v>16392</v>
       </c>
       <c r="C61" s="10">
-        <v>14576</v>
+        <v>16185</v>
       </c>
       <c r="D61" s="10">
-        <v>13337</v>
+        <v>14642</v>
       </c>
       <c r="E61" s="10">
-        <v>13317</v>
+        <v>14685</v>
       </c>
       <c r="F61" s="10">
-        <v>9706</v>
+        <v>10615</v>
       </c>
       <c r="G61" s="10">
-        <v>10958</v>
+        <v>11965</v>
       </c>
       <c r="H61" s="10">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I61" s="10">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J61" s="10">
-        <v>37985</v>
+        <v>41670</v>
       </c>
       <c r="K61" s="10">
-        <v>38871</v>
+        <v>42857</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
@@ -3282,34 +3282,34 @@
         <v>68</v>
       </c>
       <c r="B62" s="10">
-        <v>27508</v>
+        <v>30191</v>
       </c>
       <c r="C62" s="10">
-        <v>27240</v>
+        <v>30176</v>
       </c>
       <c r="D62" s="10">
-        <v>24367</v>
+        <v>26677</v>
       </c>
       <c r="E62" s="10">
-        <v>24287</v>
+        <v>26629</v>
       </c>
       <c r="F62" s="10">
-        <v>20387</v>
+        <v>22293</v>
       </c>
       <c r="G62" s="10">
-        <v>22554</v>
+        <v>24651</v>
       </c>
       <c r="H62" s="10">
+        <v>6</v>
+      </c>
+      <c r="I62" s="10">
         <v>5</v>
       </c>
-      <c r="I62" s="10">
-        <v>4</v>
-      </c>
       <c r="J62" s="10">
-        <v>72268</v>
+        <v>79166</v>
       </c>
       <c r="K62" s="10">
-        <v>74084</v>
+        <v>81461</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
@@ -3317,22 +3317,22 @@
         <v>69</v>
       </c>
       <c r="B63" s="8">
-        <v>3777</v>
+        <v>4168</v>
       </c>
       <c r="C63" s="8">
-        <v>3829</v>
+        <v>4237</v>
       </c>
       <c r="D63" s="8">
-        <v>4883</v>
+        <v>5370</v>
       </c>
       <c r="E63" s="8">
-        <v>4923</v>
+        <v>5431</v>
       </c>
       <c r="F63" s="8">
-        <v>4243</v>
+        <v>4659</v>
       </c>
       <c r="G63" s="8">
-        <v>4194</v>
+        <v>4621</v>
       </c>
       <c r="H63" s="8">
         <v>0</v>
@@ -3341,10 +3341,10 @@
         <v>0</v>
       </c>
       <c r="J63" s="8">
-        <v>12902</v>
+        <v>14196</v>
       </c>
       <c r="K63" s="8">
-        <v>12946</v>
+        <v>14290</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
@@ -3352,22 +3352,22 @@
         <v>70</v>
       </c>
       <c r="B64" s="10">
-        <v>1606</v>
+        <v>1788</v>
       </c>
       <c r="C64" s="10">
-        <v>1642</v>
+        <v>1824</v>
       </c>
       <c r="D64" s="10">
-        <v>2273</v>
+        <v>2510</v>
       </c>
       <c r="E64" s="10">
-        <v>2279</v>
+        <v>2514</v>
       </c>
       <c r="F64" s="10">
-        <v>1131</v>
+        <v>1247</v>
       </c>
       <c r="G64" s="10">
-        <v>1124</v>
+        <v>1234</v>
       </c>
       <c r="H64" s="10">
         <v>0</v>
@@ -3376,10 +3376,10 @@
         <v>0</v>
       </c>
       <c r="J64" s="10">
-        <v>5011</v>
+        <v>5546</v>
       </c>
       <c r="K64" s="10">
-        <v>5045</v>
+        <v>5571</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
@@ -3387,22 +3387,22 @@
         <v>71</v>
       </c>
       <c r="B65" s="10">
-        <v>2170</v>
+        <v>2379</v>
       </c>
       <c r="C65" s="10">
-        <v>2187</v>
+        <v>2414</v>
       </c>
       <c r="D65" s="10">
-        <v>2610</v>
+        <v>2860</v>
       </c>
       <c r="E65" s="10">
-        <v>2644</v>
+        <v>2917</v>
       </c>
       <c r="F65" s="10">
-        <v>3111</v>
+        <v>3411</v>
       </c>
       <c r="G65" s="10">
-        <v>3069</v>
+        <v>3387</v>
       </c>
       <c r="H65" s="10">
         <v>0</v>
@@ -3411,10 +3411,10 @@
         <v>0</v>
       </c>
       <c r="J65" s="10">
-        <v>7891</v>
+        <v>8650</v>
       </c>
       <c r="K65" s="10">
-        <v>7901</v>
+        <v>8719</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
@@ -3422,34 +3422,34 @@
         <v>72</v>
       </c>
       <c r="B66" s="8">
-        <v>1193784</v>
+        <v>1286581</v>
       </c>
       <c r="C66" s="8">
-        <v>1199748</v>
+        <v>1292426</v>
       </c>
       <c r="D66" s="8">
-        <v>1145708</v>
+        <v>1250159</v>
       </c>
       <c r="E66" s="8">
-        <v>1149782</v>
+        <v>1253922</v>
       </c>
       <c r="F66" s="8">
-        <v>786191</v>
+        <v>861283</v>
       </c>
       <c r="G66" s="8">
-        <v>829789</v>
+        <v>908283</v>
       </c>
       <c r="H66" s="8">
-        <v>6253</v>
+        <v>6845</v>
       </c>
       <c r="I66" s="8">
-        <v>6413</v>
+        <v>7017</v>
       </c>
       <c r="J66" s="8">
-        <v>3131935</v>
+        <v>3404868</v>
       </c>
       <c r="K66" s="8">
-        <v>3185732</v>
+        <v>3461649</v>
       </c>
     </row>
     <row r="67" spans="1:11" ht="129.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
